--- a/reports/Custodian_wise_report.xlsx
+++ b/reports/Custodian_wise_report.xlsx
@@ -759,7 +759,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="20" customWidth="true" style="0"/>
+    <col min="1" max="1" width="5" customWidth="true" style="0"/>
     <col min="2" max="2" width="40" customWidth="true" style="0"/>
     <col min="3" max="3" width="20" customWidth="true" style="0"/>
     <col min="4" max="4" width="20" customWidth="true" style="0"/>
